--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\taxjob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544EC975-8EC2-41D3-B06D-8B680193D2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0C47F-92E0-48F7-A045-3E46A2E4757F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F61F0050-78A8-487B-91F1-EE1DD1EDF82F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -56,16 +56,55 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>SoBL</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>CT3</t>
+  </si>
+  <si>
+    <t>CT4</t>
+  </si>
+  <si>
+    <t>CT5</t>
+  </si>
+  <si>
+    <t>CT6</t>
+  </si>
+  <si>
+    <t>CT7</t>
+  </si>
+  <si>
+    <t>CT8</t>
+  </si>
+  <si>
+    <t>CT9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -407,63 +446,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0200852C-6923-45FB-AAB7-AE4278638945}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25310</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>32000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>52320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>62370</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>23020</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>22900</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>22000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>44000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>42568</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>